--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1336153.937893957</v>
+        <v>1440333.572345029</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>325.4684401241307</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>287.7971664995879</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>66.62774187000215</v>
       </c>
       <c r="Y4" t="n">
-        <v>164.852293113478</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>148.588958969334</v>
+        <v>56.48865491052371</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>134.7466378365502</v>
+        <v>125.017113163757</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>147.4560401914879</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>15.98152127083216</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>35.95023085698958</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>28.7518808581214</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>74.20064764874429</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,13 +1897,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>35.88641949135544</v>
+        <v>245.879692121443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>65.67353929277179</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>59.45282559760403</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>31.26260713376574</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>78.34975387299224</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.05096575280812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>59.96838802184633</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>62.14989839348932</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>177.696569780331</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3670,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.976073321717</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>180.8909947756162</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2288.135186201105</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1919.172669260694</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1560.906970653943</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259407</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064753</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080133</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2887.609431745066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>2718.673248817159</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>3235.775364366698</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>3235.775364366698</v>
+        <v>354.6054449393521</v>
       </c>
       <c r="W4" t="n">
-        <v>3235.775364366698</v>
+        <v>354.6054449393521</v>
       </c>
       <c r="X4" t="n">
-        <v>3235.775364366698</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>3069.257896575306</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.50962791956</v>
+        <v>2016.438433460088</v>
       </c>
       <c r="C5" t="n">
-        <v>1698.50962791956</v>
+        <v>1647.475916519676</v>
       </c>
       <c r="D5" t="n">
-        <v>1340.243929312809</v>
+        <v>1289.210217912926</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4601,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>2403.03827352421</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.445961844415</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C7" t="n">
-        <v>349.5097789165081</v>
+        <v>751.9508228902777</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746548</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.9544330261738</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025399</v>
+        <v>904.7440550395662</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025399</v>
+        <v>904.7440550395662</v>
       </c>
       <c r="U10" t="n">
-        <v>350.2677975281835</v>
+        <v>904.7440550395662</v>
       </c>
       <c r="V10" t="n">
-        <v>313.9544330261738</v>
+        <v>650.0595668336794</v>
       </c>
       <c r="W10" t="n">
-        <v>313.9544330261738</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="X10" t="n">
-        <v>313.9544330261738</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="Y10" t="n">
-        <v>313.9544330261738</v>
+        <v>360.6423967967187</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,55 +5029,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828447</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7668121881176</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>168.7668121881176</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="20">
@@ -5741,43 +5743,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5940,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,10 +5998,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>2588.787486630498</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>2588.787486630498</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>2588.787486630498</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>2588.787486630498</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2421.591387345378</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6211,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6406,22 +6408,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
         <v>1354.218256739386</v>
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4623.787448650995</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U31" t="n">
-        <v>4334.712221995193</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>4080.027733789307</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>3790.610563752346</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>3562.621012854329</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,16 +6788,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2939.372134388645</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="C34" t="n">
-        <v>2939.372134388645</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243706</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E34" t="n">
         <v>2728.681365661313</v>
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,19 +6958,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7111,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>484.8243144841094</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>980.1499206998682</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687895</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.6374272687974</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408905</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.244907039234</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.169680383432</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.485192177545</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W43" t="n">
-        <v>1431.068022140585</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.078471242567</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.2858920990371</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>116.6691671648098</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7.065188669821239</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.2980548978887</v>
+        <v>40.3047822678011</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>114.1584408891655</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.11263957635595</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.5336875992867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>119.863592160091</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>86.46557462472303</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>39.70888054695729</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>36.51445555167211</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="15">
@@ -26314,34 +26316,34 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.624806254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
@@ -26350,7 +26352,7 @@
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062536</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073562</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26433,7 +26435,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26445,19 +26447,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997316</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.4214997312</v>
       </c>
       <c r="E6" t="n">
-        <v>62494.99316811183</v>
+        <v>62494.99316811096</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.4549754671</v>
+        <v>387907.4549754678</v>
       </c>
       <c r="G6" t="n">
+        <v>387907.454975467</v>
+      </c>
+      <c r="H6" t="n">
         <v>387907.4549754669</v>
       </c>
-      <c r="H6" t="n">
-        <v>387907.4549754671</v>
-      </c>
       <c r="I6" t="n">
-        <v>387907.4549754667</v>
+        <v>387907.4549754668</v>
       </c>
       <c r="J6" t="n">
-        <v>170376.2525781895</v>
+        <v>170376.2525781893</v>
       </c>
       <c r="K6" t="n">
+        <v>387907.4549754669</v>
+      </c>
+      <c r="L6" t="n">
+        <v>387907.4549754669</v>
+      </c>
+      <c r="M6" t="n">
+        <v>302852.4270399549</v>
+      </c>
+      <c r="N6" t="n">
         <v>387907.454975467</v>
       </c>
-      <c r="L6" t="n">
-        <v>387907.4549754671</v>
-      </c>
-      <c r="M6" t="n">
-        <v>302852.4270399552</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>387907.4549754669</v>
       </c>
-      <c r="O6" t="n">
-        <v>387907.4549754671</v>
-      </c>
       <c r="P6" t="n">
-        <v>387907.4549754668</v>
+        <v>387907.4549754669</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>56.46192994813106</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>98.4407721564657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>159.081913519035</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.73236023861679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>233.3414111029278</v>
+        <v>325.4417151617381</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13.86883518166215</v>
+        <v>23.59835985445535</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>201.7849285259252</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>173.7875040606097</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>216.1874124668384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30043,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30183,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-2.419498242208011e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>232.7599890885182</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31923,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0225991093089</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33506,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>379.8551982710414</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>303.4024373464759</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>98.78558167418792</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>8.181160134949948</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -37154,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37385,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37479,7 +37481,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306621</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>242.0137592966824</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>165.560998372117</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237767</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1440333.572345029</v>
+        <v>1436320.962331035</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>88.01624809068136</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>325.4684401241307</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>66.62774187000215</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>103.2405365268742</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>77.42639794035721</v>
       </c>
       <c r="E5" t="n">
-        <v>56.48865491052371</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>125.017113163757</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>72.08802744677254</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>193.2852664785245</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>147.4560401914879</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>15.98152127083216</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.7518808581214</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>85.71023095289448</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>245.879692121443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.67353929277179</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.45282559760403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>78.34975387299224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>63.84155641259233</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>216.4795114578124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.96838802184633</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>177.696569780331</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>28.7518808581156</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2288.135186201105</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C2" t="n">
-        <v>1919.172669260694</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1560.906970653943</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>2678.274518176917</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y2" t="n">
-        <v>2288.135186201105</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U4" t="n">
-        <v>609.2899331452389</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V4" t="n">
-        <v>354.6054449393521</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W4" t="n">
-        <v>354.6054449393521</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2016.438433460088</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C5" t="n">
-        <v>1647.475916519676</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.210217912926</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,25 +4567,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.03827352421</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y5" t="n">
-        <v>2403.03827352421</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902777</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>139.3283057723577</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>139.3283057723577</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>601.330258491548</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2735.306770649777</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.6423967967187</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967187</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4989,25 +4989,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>904.7440550395662</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>904.7440550395662</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>904.7440550395662</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>650.0595668336794</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>360.6423967967187</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>360.6423967967187</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.6423967967187</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589159</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828447</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400726</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400726</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400726</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400726</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138424</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703123</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>3972.967823953646</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>3972.967823953646</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3972.967823953646</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5782,22 +5782,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5940,22 +5940,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,13 +6010,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284095</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6448,13 +6448,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.396372297858</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6703,10 +6703,10 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6788,19 +6788,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2878.798005073648</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.798005073648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580257</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580257</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2267.47159895366</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7159,25 +7159,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,16 +7195,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7338,46 +7338,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474262</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648098</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.9994244361427</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.3047822678011</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.1584408891655</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>186.1428431935229</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>84.77391660562003</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.863592160091</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>39.70888054695729</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>116.6691671648156</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.624806254</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073562</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26441,13 +26441,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26459,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997316</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997312</v>
+        <v>311620.4214997314</v>
       </c>
       <c r="E6" t="n">
-        <v>62494.99316811096</v>
+        <v>62147.61391375472</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.4549754678</v>
+        <v>387560.07572111</v>
       </c>
       <c r="G6" t="n">
-        <v>387907.454975467</v>
+        <v>387560.07572111</v>
       </c>
       <c r="H6" t="n">
-        <v>387907.4549754669</v>
+        <v>387560.0757211099</v>
       </c>
       <c r="I6" t="n">
-        <v>387907.4549754668</v>
+        <v>387560.0757211099</v>
       </c>
       <c r="J6" t="n">
-        <v>170376.2525781893</v>
+        <v>170028.8733238325</v>
       </c>
       <c r="K6" t="n">
-        <v>387907.4549754669</v>
+        <v>387560.0757211099</v>
       </c>
       <c r="L6" t="n">
-        <v>387907.4549754669</v>
+        <v>387560.0757211099</v>
       </c>
       <c r="M6" t="n">
-        <v>302852.4270399549</v>
+        <v>302505.047785598</v>
       </c>
       <c r="N6" t="n">
-        <v>387907.454975467</v>
+        <v>387560.07572111</v>
       </c>
       <c r="O6" t="n">
-        <v>387907.4549754669</v>
+        <v>387560.0757211099</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.4549754669</v>
+        <v>387560.0757211099</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>277.2566436803262</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56.46192994813106</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>159.081913519035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>115.3441168252206</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>277.2566436803257</v>
       </c>
       <c r="E5" t="n">
-        <v>325.4417151617381</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>23.59835985445535</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>24.26439296306555</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>217.636459174929</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>201.7849285259252</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>173.7875040606097</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-2.419498242208011e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31621,10 +31621,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>232.7599890885182</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>448.9178583921318</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>98.78558167418792</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306621</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>314.9434509778015</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1436320.962331035</v>
+        <v>1438081.49263382</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>88.01624809068136</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>345.1703548518375</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.7337232129122</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>103.2405365268742</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>77.42639794035721</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680971</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>72.08802744677254</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>115.0138334144183</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>193.2852664785245</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506832</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>85.71023095289448</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>173.8476477102227</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>39.83255574579444</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>100.0416311957212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>63.84155641259233</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>42.5313457611372</v>
+        <v>108.5813113004301</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465731</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>28.23631843387516</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>28.7518808581156</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6127326838975</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835252</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1524.001143073071</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1165.73544446632</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1165.73544446632</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>754.7495396767126</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136265</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875185</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899373</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.1511359853714</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574644</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574644</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4515,25 +4515,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>507.4345062145372</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="W4" t="n">
-        <v>507.4345062145372</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="X4" t="n">
-        <v>507.4345062145372</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y4" t="n">
-        <v>403.1511359853714</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835252</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.14770589484</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731436</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181401</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875186</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899374</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>751.950822890278</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779422</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955491</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976387</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723577</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>139.3283057723577</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4761,16 +4761,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.316163281155</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1012.316163281155</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>601.330258491548</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>448.1376146247341</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>301.2476671268237</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>134.0515678417036</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,13 +6010,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6651,22 +6651,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2337.284991357604</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2117.683526380545</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>264.0500279773648</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400667</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400667</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400667</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400667</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7338,46 +7338,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797698</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9994244361427</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>100.4621571004295</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>32.89260457060011</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405074</v>
+        <v>72.44497470121448</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520995</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.1847295890561</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.85445046951749</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>116.6691671648156</v>
+        <v>10.32607348286601</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115524</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115524</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="L2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
@@ -26352,7 +26352,7 @@
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
@@ -26429,7 +26429,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26447,13 +26447,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26527,43 +26527,43 @@
         <v>311620.4214997311</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997314</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="E6" t="n">
-        <v>62147.61391375472</v>
+        <v>62460.25524267595</v>
       </c>
       <c r="F6" t="n">
-        <v>387560.07572111</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="G6" t="n">
-        <v>387560.07572111</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="H6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.717050031</v>
       </c>
       <c r="I6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="J6" t="n">
-        <v>170028.8733238325</v>
+        <v>170341.5146527536</v>
       </c>
       <c r="K6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="L6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="M6" t="n">
-        <v>302505.047785598</v>
+        <v>302817.6891145192</v>
       </c>
       <c r="N6" t="n">
-        <v>387560.07572111</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="O6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.7170500313</v>
       </c>
       <c r="P6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.7170500312</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973558</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>277.2566436803262</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>65.75137080161596</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27587,16 +27587,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.4039201109158</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>115.3441168252206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>277.2566436803257</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>126.4919521192234</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>24.26439296306555</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>137.1238099094097</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>217.636459174929</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194517</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282316</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29975,7 +29975,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
     </row>
     <row r="35">
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-2.419498242208011e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37706,7 +37706,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191267</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
